--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -1,72 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkess\OneDrive\Documents\CWRU\Macro\Python\Macro-Citizen-Science\manifests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>!subject_ID</t>
-  </si>
-  <si>
-    <t>#file_name</t>
-  </si>
-  <si>
-    <t>#training_subject</t>
-  </si>
-  <si>
-    <t>#feedback_1_id</t>
-  </si>
-  <si>
-    <t>#feedback_1_x</t>
-  </si>
-  <si>
-    <t>#feedback_1_y</t>
-  </si>
-  <si>
-    <t>#feedback_1_toleranceA</t>
-  </si>
-  <si>
-    <t>#feedback_1_toleranceB</t>
-  </si>
-  <si>
-    <t>#feedback_1_theta</t>
-  </si>
-  <si>
-    <t>#minor_to_major_ratio</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -365,58 +317,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.36328125" bestFit="1" customWidth="1" min="5" max="6"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="21.54296875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="20.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!subject_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>#file_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>#training_subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>#feedback_1_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>#feedback_1_x</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>#feedback_1_y</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#feedback_1_toleranceA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>#feedback_1_toleranceB</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>#feedback_1_theta</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>#minor_to_major_ratio</t>
+        </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -322,7 +322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
@@ -393,7 +393,206 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sim_proc_IMG_3157_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>156</v>
+      </c>
+      <c r="F2" t="n">
+        <v>493</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sim_proc_IMG_3156_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1357</v>
+      </c>
+      <c r="F3" t="n">
+        <v>162</v>
+      </c>
+      <c r="G3" t="n">
+        <v>74</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>228</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sim_proc_IMG_3155_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>364</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1368</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sim_proc_IMG_3155_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1702</v>
+      </c>
+      <c r="F5" t="n">
+        <v>898</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49</v>
+      </c>
+      <c r="H5" t="n">
+        <v>29</v>
+      </c>
+      <c r="I5" t="n">
+        <v>299</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sim_proc_IMG_3157_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1232</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1339</v>
+      </c>
+      <c r="G6" t="n">
+        <v>33</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>324</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -1,33 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkess\OneDrive\Documents\CWRU\Macro\Python\Macro-Citizen-Science\manifests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>!subject_ID</t>
+  </si>
+  <si>
+    <t>#file_name</t>
+  </si>
+  <si>
+    <t>#training_subject</t>
+  </si>
+  <si>
+    <t>#feedback_1_id</t>
+  </si>
+  <si>
+    <t>#feedback_1_x</t>
+  </si>
+  <si>
+    <t>#feedback_1_y</t>
+  </si>
+  <si>
+    <t>#feedback_1_toleranceA</t>
+  </si>
+  <si>
+    <t>#feedback_1_toleranceB</t>
+  </si>
+  <si>
+    <t>#feedback_1_theta</t>
+  </si>
+  <si>
+    <t>#minor_to_major_ratio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,12 +85,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -317,280 +365,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="10.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.36328125" bestFit="1" customWidth="1" min="5" max="6"/>
-    <col width="21.6328125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="21.54296875" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="16.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="20.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>!subject_ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>#file_name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>#training_subject</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>#feedback_1_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>#feedback_1_x</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>#feedback_1_y</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>#feedback_1_toleranceA</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>#feedback_1_toleranceB</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>#feedback_1_theta</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>#minor_to_major_ratio</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sim_proc_IMG_3157_3.jpeg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>meltpatch</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>156</v>
-      </c>
-      <c r="F2" t="n">
-        <v>493</v>
-      </c>
-      <c r="G2" t="n">
-        <v>24</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sim_proc_IMG_3156_4.jpeg</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>meltpatch</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F3" t="n">
-        <v>162</v>
-      </c>
-      <c r="G3" t="n">
-        <v>74</v>
-      </c>
-      <c r="H3" t="n">
-        <v>29</v>
-      </c>
-      <c r="I3" t="n">
-        <v>228</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sim_proc_IMG_3155_4.jpeg</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>meltpatch</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>364</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1368</v>
-      </c>
-      <c r="G4" t="n">
-        <v>49</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sim_proc_IMG_3155_1.jpeg</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>meltpatch</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1702</v>
-      </c>
-      <c r="F5" t="n">
-        <v>898</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49</v>
-      </c>
-      <c r="H5" t="n">
-        <v>29</v>
-      </c>
-      <c r="I5" t="n">
-        <v>299</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>sim_proc_IMG_3157_1.jpeg</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>meltpatch</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1232</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1339</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>19</v>
-      </c>
-      <c r="I6" t="n">
-        <v>324</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -1,72 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkess\OneDrive\Documents\CWRU\Macro\Python\Macro-Citizen-Science\manifests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>!subject_ID</t>
-  </si>
-  <si>
-    <t>#file_name</t>
-  </si>
-  <si>
-    <t>#training_subject</t>
-  </si>
-  <si>
-    <t>#feedback_1_id</t>
-  </si>
-  <si>
-    <t>#feedback_1_x</t>
-  </si>
-  <si>
-    <t>#feedback_1_y</t>
-  </si>
-  <si>
-    <t>#feedback_1_toleranceA</t>
-  </si>
-  <si>
-    <t>#feedback_1_toleranceB</t>
-  </si>
-  <si>
-    <t>#feedback_1_theta</t>
-  </si>
-  <si>
-    <t>#minor_to_major_ratio</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,21 +46,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -365,58 +317,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.36328125" bestFit="1" customWidth="1" min="5" max="6"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="21.54296875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="20.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!subject_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>#file_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>#training_subject</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>#feedback_1_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>#feedback_1_x</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>#feedback_1_y</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#feedback_1_toleranceA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>#feedback_1_toleranceB</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>#feedback_1_theta</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>#minor_to_major_ratio</t>
+        </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11700" windowHeight="3910" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -52,6 +52,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -322,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -334,17 +402,17 @@
     <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="15.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="13.36328125" bestFit="1" customWidth="1" min="5" max="6"/>
-    <col width="21.6328125" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="21.54296875" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="16.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="20.54296875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="13.36328125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="20.54296875" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>!subject_ID</t>
+          <t>!subject_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -354,48 +422,511 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>#training_subject</t>
+          <t>#feedback_1_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>#feedback_1_id</t>
+          <t>#feedback_1_x</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>#feedback_1_x</t>
+          <t>#feedback_1_y</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>#feedback_1_y</t>
+          <t>#feedback_1_toleranceA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>#feedback_1_toleranceA</t>
+          <t>#feedback_1_toleranceB</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>#feedback_1_toleranceB</t>
+          <t>#feedback_1_theta</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>#feedback_1_theta</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>#minor_to_major_ratio</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>s1_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3458</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s2_IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s3_IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2111</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>s8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>s8_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>s9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s9_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1893</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>s10_IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3423</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -1,69 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkess\OneDrive\Documents\CWRU\Macro\Python\Macro-Citizen-Science\manifests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>!subject_id</t>
-  </si>
-  <si>
-    <t>#file_name</t>
-  </si>
-  <si>
-    <t>#feedback_1_id</t>
-  </si>
-  <si>
-    <t>#feedback_1_x</t>
-  </si>
-  <si>
-    <t>#feedback_1_y</t>
-  </si>
-  <si>
-    <t>#feedback_1_toleranceA</t>
-  </si>
-  <si>
-    <t>#feedback_1_toleranceB</t>
-  </si>
-  <si>
-    <t>#feedback_1_theta</t>
-  </si>
-  <si>
-    <t>#minor_to_major_ratio</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -82,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,53 +385,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col width="10.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13.36328125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="21.6328125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="16.81640625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="20.54296875" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>!subject_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>#file_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>#feedback_1_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>#feedback_1_x</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>#feedback_1_y</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>#feedback_1_toleranceA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#feedback_1_toleranceB</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>#feedback_1_theta</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>#minor_to_major_ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>s1_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3479</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s2_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>907</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s3_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1482</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4_IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2625</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I11"/>
@@ -691,6 +691,241 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1705</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1748</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7_IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>s8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>s8_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1320</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>s9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s9_IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>s10_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3045</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2170</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I11"/>
@@ -926,6 +926,241 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>s11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>s11_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1846</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1594</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>s12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>s12_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>s13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>s13_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3028</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>s14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>s14_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>s15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>s15_IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1785</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I11"/>
@@ -1161,6 +1161,241 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>s16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>s16_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>s17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>s17_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2076</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>s18_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>s19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>s19_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>s20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>s20_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I21"/>
@@ -691,6 +691,241 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7_IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>s8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>s8_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1456</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>s9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>s9_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3174</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2241</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>s10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>s10_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1369</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I21"/>
@@ -926,6 +926,241 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>s11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>s11_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2538</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>s12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>s12_IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>s13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>s13_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2293</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>s14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>s14_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>s15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>s15_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2777</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I21"/>
@@ -1161,6 +1161,241 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>s16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>s16_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1734</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>s17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>s17_IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1104</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>s18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>s18_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1679</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>s19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>s19_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2426</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>s20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>s20_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>902</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I21"/>
@@ -1396,6 +1396,1181 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>s21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>s21_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1479</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>s22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>s22_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>s23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>s23_IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1863</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>s24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>s24_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2952</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>s25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>s25_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>822</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>s26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>s26_IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>s27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>s27_IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>s28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>s28_IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>s29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>s29_IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2137</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>s30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>s30_IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>s31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>s31_e43_321_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>s32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>s32_e45_321_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2541</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1628</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>s33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>s33_e46_321_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>s34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>s34_e48_321_2_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1450</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>s35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>s35_e44_321_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2513</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>s36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>s36_e54_321_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>s37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>s37_e52_321_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>s38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>s38_e53_321_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1750</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1919</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>s39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>s39_e56_321_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2280</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>s40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>s40_e50_321_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>s41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>s41_e59_321_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2465</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>s42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>s42_e57_321_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2608</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>s43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>s43_e63_321_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2366</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>s44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>s44_e58_321_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2078</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>s45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>s45_e60_321_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I21"/>
@@ -2571,6 +2571,241 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>s46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>s46_e66_321_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1824</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1755</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>s47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>s47_e69_321_2_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>s48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>s48_e64_321_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>s49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>s49_e70_321_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1174</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>s50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>s50_e67_321_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I21"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>s1_IMG_3175.jpeg</t>
+          <t>s1_e8_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -474,32 +474,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3360</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>89</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>s2_IMG_3179.jpeg</t>
+          <t>s2_e24_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,27 +521,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2902</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>750</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>171</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>s3_IMG_3174.jpeg</t>
+          <t>s3_e9_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,32 +568,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>2450</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>s4_IMG_3178.jpeg</t>
+          <t>s4_e23_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,32 +615,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s5_IMG_3180.jpeg</t>
+          <t>s5_e16_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -662,32 +662,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2948</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>s6_IMG_3174.jpeg</t>
+          <t>s6_e26_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -709,32 +709,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>553</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>s7_IMG_3177.jpeg</t>
+          <t>s7_e13_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -756,32 +756,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>883</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>s8_IMG_3179.jpeg</t>
+          <t>s8_e13_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>1732</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>143</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>s9_IMG_3175.jpeg</t>
+          <t>s9_e1_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -850,32 +850,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3174</t>
+          <t>763</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2241</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>s10_IMG_3178.jpeg</t>
+          <t>s10_e20_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -897,32 +897,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>983</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>128</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>s11_IMG_3178.jpeg</t>
+          <t>s11_e7_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -944,32 +944,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>s12_IMG_3180.jpeg</t>
+          <t>s12_e3_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -991,32 +991,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>888</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>400</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>259</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>s13_IMG_3176.jpeg</t>
+          <t>s13_e10_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1038,32 +1038,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>s14_IMG_3179.jpeg</t>
+          <t>s14_e19_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1085,27 +1085,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>2295</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>1803</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>158</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>s15_IMG_3174.jpeg</t>
+          <t>s15_e4_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>758</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>333</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>127</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>s16_IMG_3178.jpeg</t>
+          <t>s16_e17_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1179,32 +1179,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>121</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>s17_IMG_3177.jpeg</t>
+          <t>s17_e6_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1328</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>137</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>177</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>s18_IMG_3174.jpeg</t>
+          <t>s18_e27_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,32 +1273,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>646</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>98</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>s19_IMG_3179.jpeg</t>
+          <t>s19_e12_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1320,32 +1320,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2426</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>136</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>s20_IMG_3176.jpeg</t>
+          <t>s20_e5_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1367,32 +1367,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>902</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1081</t>
+          <t>204</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>s21_IMG_3174.jpeg</t>
+          <t>s21_e3_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1414,32 +1414,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>241</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>97</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>s22_IMG_3179.jpeg</t>
+          <t>s22_e22_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1461,32 +1461,32 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>555</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>s23_IMG_3176.jpeg</t>
+          <t>s23_e23_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1508,32 +1508,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>520</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>253</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>s24_IMG_3178.jpeg</t>
+          <t>s24_e20_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1555,32 +1555,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>s25_IMG_3175.jpeg</t>
+          <t>s25_e8_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1602,27 +1602,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>717</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>s26_IMG_3179.jpeg</t>
+          <t>s26_e18_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1649,32 +1649,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>907</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>114</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>s27_IMG_3175.jpeg</t>
+          <t>s27_e21_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1696,32 +1696,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>649</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>s28_IMG_3180.jpeg</t>
+          <t>s28_e4_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,32 +1743,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>2374</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>s29_IMG_3178.jpeg</t>
+          <t>s29_e21_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1790,32 +1790,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>815</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>s30_IMG_3174.jpeg</t>
+          <t>s30_e20_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1837,32 +1837,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>295</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>280</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>181</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>s31_e43_321_1_1.jpeg</t>
+          <t>s31_e1_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1884,32 +1884,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>297</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>207</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>s32_e45_321_1_3.jpeg</t>
+          <t>s32_e18_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,32 +1931,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>233</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>s33_e46_321_2_2.jpeg</t>
+          <t>s33_e14_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1978,32 +1978,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>607</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>259</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>s34_e48_321_2_0.jpeg</t>
+          <t>s34_e15_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2025,32 +2025,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>755</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>354</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>141</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>s35_e44_321_1_2.jpeg</t>
+          <t>s35_e22_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2072,27 +2072,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>795</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>s36_e54_321_2_1.jpeg</t>
+          <t>s36_e14_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,32 +2119,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>985</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>306</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>s37_e52_321_1_3.jpeg</t>
+          <t>s37_e6_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2166,32 +2166,32 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>859</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>129</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>s38_e53_321_2_2.jpeg</t>
+          <t>s38_e27_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1750</t>
+          <t>939</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>162</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>153</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>s39_e56_321_3_1.jpeg</t>
+          <t>s39_e11_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2260,32 +2260,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>117</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>s40_e50_321_1_1.jpeg</t>
+          <t>s40_e28_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,32 +2307,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>782</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>327</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>227</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>s41_e59_321_1_3.jpeg</t>
+          <t>s41_e17_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,32 +2354,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>476</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>1702</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>s42_e57_321_1_1.jpeg</t>
+          <t>s42_e14_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>175</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>s43_e63_321_3_1.jpeg</t>
+          <t>s43_e4_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2366</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>451</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>s44_e58_321_1_2.jpeg</t>
+          <t>s44_e7_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2495,17 +2495,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2078</t>
+          <t>2192</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>96</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>116</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>s45_e60_321_2_2.jpeg</t>
+          <t>s45_e11_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,17 +2542,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>717</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>155</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2562,12 +2562,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>82</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>s46_e66_321_1_3.jpeg</t>
+          <t>s46_e25_24019-32_4_7.jpeg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2589,17 +2589,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>s47_e69_321_2_0.jpeg</t>
+          <t>s47_e11_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2636,17 +2636,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>233</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>103</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>s48_e64_321_1_1.jpeg</t>
+          <t>s48_e6_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2683,32 +2683,32 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>805</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>912</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>s49_e70_321_3_1.jpeg</t>
+          <t>s49_e24_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2730,27 +2730,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>s50_e67_321_2_2.jpeg</t>
+          <t>s50_e16_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2777,32 +2777,878 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1533</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>s51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>s51_e5_24019-32_1_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>s52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>s52_e27_24019-32_4_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>s53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>s53_e22_24019-32_3_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>s54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>s54_e15_24019-32_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2529</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1773</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>s55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>s55_e28_24019-32_4_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>s56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>s56_e12_24019-32_2_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>s57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>s57_e7_24019-32_1_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1826</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>s58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>s58_e9_24019-32_2_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2092</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>s59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>s59_e2_24019-32_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>s60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>s60_e19_24019-32_3_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1695</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>s61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>s61_e17_24019-32_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1297</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>s62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>s62_e10_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>s63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>s63_e24_24019-32_3_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2498</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>s64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>s64_e13_24019-32_2_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>s65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>s65_e18_24019-32_3_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>s66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>s66_e2_24019-32_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1923</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
           <t>77</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>s67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>s67_e23_24019-32_3_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1108</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>s68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>s68_e10_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1335</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -392,7 +392,7 @@
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I69"/>
     </sheetView>
   </sheetViews>
@@ -464,7 +464,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>s1_e8_24019-32_1_8.jpeg</t>
+          <t>s1_e19_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -474,12 +474,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1337</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>s3_e9_24019-32_2_7.jpeg</t>
+          <t>s3_e22_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>s4_e23_24019-32_3_7.jpeg</t>
+          <t>s4_e7_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>2085</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>117</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s5_e16_24019-32_2_0.jpeg</t>
+          <t>s5_e25_24019-32_4_7.jpeg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>387</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>101</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>s6_e26_24019-32_4_6.jpeg</t>
+          <t>s6_e11_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>538</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>s8_e13_24019-32_2_3.jpeg</t>
+          <t>s8_e24_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -803,12 +803,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1732</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>598</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>s9_e1_24019-32_1_1.jpeg</t>
+          <t>s9_e3_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>414</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>s10_e20_24019-32_3_4.jpeg</t>
+          <t>s10_e14_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>s11_e7_24019-32_1_7.jpeg</t>
+          <t>s11_e23_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>s12_e3_24019-32_1_3.jpeg</t>
+          <t>s12_e23_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>782</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>s13_e10_24019-32_2_6.jpeg</t>
+          <t>s13_e26_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1038,12 +1038,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>s14_e19_24019-32_3_3.jpeg</t>
+          <t>s14_e7_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2295</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>s15_e4_24019-32_1_4.jpeg</t>
+          <t>s15_e27_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1680</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>172</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>s16_e17_24019-32_3_1.jpeg</t>
+          <t>s16_e9_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>768</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>s17_e6_24019-32_1_6.jpeg</t>
+          <t>s17_e12_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1328</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>810</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>159</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>s18_e27_24019-32_4_5.jpeg</t>
+          <t>s18_e23_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>126</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>s19_e12_24019-32_2_4.jpeg</t>
+          <t>s19_e28_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>2147</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1676</t>
+          <t>53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>s20_e5_24019-32_1_5.jpeg</t>
+          <t>s20_e28_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>158</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>s21_e3_24019-32_1_3.jpeg</t>
+          <t>s21_e11_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>104</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>s22_e22_24019-32_3_6.jpeg</t>
+          <t>s22_e5_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>2366</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>499</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>s23_e23_24019-32_3_7.jpeg</t>
+          <t>s23_e14_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>s24_e20_24019-32_3_4.jpeg</t>
+          <t>s24_e15_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1555,12 +1555,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>2498</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>s25_e8_24019-32_1_8.jpeg</t>
+          <t>s25_e9_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1602,12 +1602,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1172</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1649,12 +1649,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>576</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>544</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>126</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>s27_e21_24019-32_3_5.jpeg</t>
+          <t>s27_e4_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>805</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>s28_e4_24019-32_1_4.jpeg</t>
+          <t>s28_e22_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,12 +1743,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2374</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>s29_e21_24019-32_3_5.jpeg</t>
+          <t>s29_e15_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1790,12 +1790,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>363</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>658</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>113</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>s30_e20_24019-32_3_4.jpeg</t>
+          <t>s30_e13_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>551</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>s31_e1_24019-32_1_1.jpeg</t>
+          <t>s31_e19_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>2604</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>984</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>98</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>s32_e18_24019-32_3_2.jpeg</t>
+          <t>s32_e10_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1071</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>813</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>s33_e14_24019-32_2_2.jpeg</t>
+          <t>s33_e18_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>97</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>s34_e15_24019-32_2_1.jpeg</t>
+          <t>s34_e1_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>s35_e22_24019-32_3_6.jpeg</t>
+          <t>s35_e21_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2072,12 +2072,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>824</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>s36_e14_24019-32_2_2.jpeg</t>
+          <t>s36_e8_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>s37_e6_24019-32_1_6.jpeg</t>
+          <t>s37_e28_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2166,12 +2166,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>923</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>163</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>s38_e27_24019-32_4_5.jpeg</t>
+          <t>s38_e22_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>s39_e11_24019-32_2_5.jpeg</t>
+          <t>s39_e9_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>107</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>195</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>s40_e28_24019-32_4_4.jpeg</t>
+          <t>s40_e14_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>102</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>109</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>s41_e17_24019-32_3_1.jpeg</t>
+          <t>s41_e6_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1702</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2374,7 +2374,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>s42_e14_24019-32_2_2.jpeg</t>
+          <t>s42_e5_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>984</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>s43_e4_24019-32_1_4.jpeg</t>
+          <t>s43_e19_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>127</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>s44_e7_24019-32_1_7.jpeg</t>
+          <t>s44_e20_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2192</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>438</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>s45_e11_24019-32_2_5.jpeg</t>
+          <t>s45_e21_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2542,12 +2542,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>s46_e25_24019-32_4_7.jpeg</t>
+          <t>s46_e10_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>128</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>s47_e11_24019-32_2_5.jpeg</t>
+          <t>s47_e20_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>430</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>s48_e6_24019-32_1_6.jpeg</t>
+          <t>s48_e25_24019-32_4_7.jpeg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2683,12 +2683,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>121</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>s49_e24_24019-32_3_8.jpeg</t>
+          <t>s49_e3_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>159</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>s50_e16_24019-32_2_0.jpeg</t>
+          <t>s50_e13_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>441</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>s51_e5_24019-32_1_5.jpeg</t>
+          <t>s51_e11_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>s52_e27_24019-32_4_5.jpeg</t>
+          <t>s52_e7_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>858</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>444</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>130</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>s53_e22_24019-32_3_6.jpeg</t>
+          <t>s53_e16_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>s54_e15_24019-32_2_1.jpeg</t>
+          <t>s54_e21_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>186</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>104</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>s55_e28_24019-32_4_4.jpeg</t>
+          <t>s55_e17_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3012,12 +3012,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>795</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>s56_e12_24019-32_2_4.jpeg</t>
+          <t>s56_e6_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>569</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>s57_e7_24019-32_1_7.jpeg</t>
+          <t>s57_e8_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3106,12 +3106,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>167</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>s58_e9_24019-32_2_7.jpeg</t>
+          <t>s58_e27_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3153,12 +3153,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>s59_e2_24019-32_1_2.jpeg</t>
+          <t>s59_e1_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>985</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>s60_e19_24019-32_3_3.jpeg</t>
+          <t>s60_e4_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3247,12 +3247,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>2169</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>s61_e17_24019-32_3_1.jpeg</t>
+          <t>s61_e12_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>382</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>s62_e10_24019-32_2_6.jpeg</t>
+          <t>s62_e24_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>533</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1555</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>110</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>s63_e24_24019-32_3_8.jpeg</t>
+          <t>s63_e2_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1803</t>
+          <t>247</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>s64_e13_24019-32_2_3.jpeg</t>
+          <t>s64_e10_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3435,12 +3435,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>528</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>125</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>s65_e18_24019-32_3_2.jpeg</t>
+          <t>s65_e16_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3482,12 +3482,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>2619</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>72</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>s67_e23_24019-32_3_7.jpeg</t>
+          <t>s67_e17_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>303</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>s68_e10_24019-32_2_6.jpeg</t>
+          <t>s68_e3_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>2182</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1335</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I69"/>
@@ -3652,6 +3652,1604 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>s69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>s69_e29_24019-32_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1047</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>s70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>s70_e30_24019-32_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1407</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>s71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>s71_e31_24019-32_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1946</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>s72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>s72_e32_24019-32_1_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>s73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>s73_e33_24019-32_1_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>s74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>s74_e34_24019-32_1_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>s75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>s75_e35_24019-32_1_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1839</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>s76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>s76_e36_24019-32_1_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>s77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>s77_e37_24019-32_2_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>s78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>s78_e38_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>s79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>s79_e39_24019-32_2_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>s80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>s80_e40_24019-32_2_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>s81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>s81_e41_24019-32_2_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2065</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1558</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>s82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>s82_e42_24019-32_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>s83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>s83_e43_24019-32_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>s84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>s84_e44_24019-32_2_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>s85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>s85_e45_24019-32_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1794</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>s86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>s86_e46_24019-32_3_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>s87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>s87_e47_24019-32_3_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>s88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>s88_e48_24019-32_3_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>s89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>s89_e49_24019-32_3_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1319</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>s90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>s90_e50_24019-32_3_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1765</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>s91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>s91_e51_24019-32_3_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1779</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>s92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>s92_e52_24019-32_3_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1557</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>s93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>s93_e53_24019-32_4_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>s94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>s94_e54_24019-32_4_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>s95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>s95_e55_24019-32_4_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>s96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>s96_e56_24019-32_4_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>s97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>s97_e57_24019-32_4_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>s98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>s98_e58_24019-32_4_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1446</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>s99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>s99_e59_24019-32_4_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1543</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>s100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>s100_e60_24019-32_4_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1375</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>s101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>s101_e61_24019-32_5_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>s102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>s102_e62_24019-32_5_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1835</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1351</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I69"/>
@@ -5250,6 +5250,805 @@
         </is>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>s103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>s103_e29_24019-32_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>s104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>s104_e30_24019-32_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1027</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>s105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>s105_e31_24019-32_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>1333</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>s106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>s106_e32_24019-32_1_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1806</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>s107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>s107_e33_24019-32_1_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>s108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>s108_e34_24019-32_1_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>s109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>s109_e35_24019-32_1_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1089</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>s110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>s110_e36_24019-32_1_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>s111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>s111_e37_24019-32_2_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1016</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>s112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>s112_e38_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>s113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>s113_e39_24019-32_2_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1081</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1391</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>s114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>s114_e40_24019-32_2_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1304</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>s115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>s115_e41_24019-32_2_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>s116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>s116_e42_24019-32_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1455</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>s117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>s117_e43_24019-32_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>s118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>s118_e44_24019-32_2_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>s119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>s119_e45_24019-32_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="36" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="42" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>s69_e29_24019-32_1_1.jpeg</t>
+          <t>s69_e29_20419-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3670,27 +3670,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>964</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>126</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3707,7 +3707,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>s70_e30_24019-32_1_2.jpeg</t>
+          <t>s70_e30_20419-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3717,27 +3717,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1407</t>
+          <t>419</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>s71_e31_24019-32_1_3.jpeg</t>
+          <t>s71_e31_20419-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3764,27 +3764,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>812</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>148</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>s72_e32_24019-32_1_4.jpeg</t>
+          <t>s72_e32_20419-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3811,27 +3811,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>108</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>s73_e33_24019-32_1_5.jpeg</t>
+          <t>s73_e33_20419-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3858,27 +3858,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>144</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>132</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>s74_e34_24019-32_1_6.jpeg</t>
+          <t>s74_e34_20419-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3905,27 +3905,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>881</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>151</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>s75_e35_24019-32_1_7.jpeg</t>
+          <t>s75_e35_20419-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3952,27 +3952,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>976</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>s76_e36_24019-32_1_8.jpeg</t>
+          <t>s76_e36_20419-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3999,27 +3999,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>580</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>s77_e37_24019-32_2_7.jpeg</t>
+          <t>s77_e37_20419-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4046,27 +4046,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>295</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>902</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>87</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>102</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>s78_e38_24019-32_2_6.jpeg</t>
+          <t>s78_e38_20419-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4093,27 +4093,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>97</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>114</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>s79_e39_24019-32_2_5.jpeg</t>
+          <t>s79_e39_20419-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4140,27 +4140,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>1262</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1585</t>
+          <t>405</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>146</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>s80_e40_24019-32_2_4.jpeg</t>
+          <t>s80_e40_20419-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4187,27 +4187,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>505</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>194</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>s81_e41_24019-32_2_3.jpeg</t>
+          <t>s81_e41_20419-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4234,27 +4234,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>967</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>529</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>162</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>s82_e42_24019-32_2_2.jpeg</t>
+          <t>s82_e42_20419-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4281,27 +4281,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>661</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>299</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>s83_e43_24019-32_2_1.jpeg</t>
+          <t>s83_e43_20419-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4328,27 +4328,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>s84_e44_24019-32_2_0.jpeg</t>
+          <t>s84_e44_20419-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4375,27 +4375,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1780</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>115</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>s85_e45_24019-32_3_1.jpeg</t>
+          <t>s85_e45_20419-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4422,27 +4422,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>1241</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>152</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>s86_e46_24019-32_3_2.jpeg</t>
+          <t>s86_e46_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4469,12 +4469,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>197</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>853</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>s87_e47_24019-32_3_3.jpeg</t>
+          <t>s87_e47_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4516,12 +4516,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>806</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>s88_e48_24019-32_3_4.jpeg</t>
+          <t>s88_e48_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4563,12 +4563,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>723</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>s89_e49_24019-32_3_5.jpeg</t>
+          <t>s89_e49_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4610,27 +4610,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
           <t>144</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>1319</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>12</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>s90_e50_24019-32_3_6.jpeg</t>
+          <t>s90_e50_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4657,12 +4657,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>623</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>s91_e51_24019-32_3_7.jpeg</t>
+          <t>s91_e51_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>460</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>179</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>s92_e52_24019-32_3_8.jpeg</t>
+          <t>s92_e52_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>2045</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1337</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>s93_e53_24019-32_4_7.jpeg</t>
+          <t>s93_e53_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4798,12 +4798,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>932</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>297</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>s94_e54_24019-32_4_6.jpeg</t>
+          <t>s94_e54_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4845,12 +4845,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>622</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>573</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>s95_e55_24019-32_4_5.jpeg</t>
+          <t>s95_e55_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>686</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>461</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4929,7 +4929,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>s96_e56_24019-32_4_4.jpeg</t>
+          <t>s96_e56_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>s97_e57_24019-32_4_3.jpeg</t>
+          <t>s97_e57_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4986,12 +4986,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1727</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>567</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>s98_e58_24019-32_4_2.jpeg</t>
+          <t>s98_e58_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5033,12 +5033,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>863</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>s99_e59_24019-32_4_1.jpeg</t>
+          <t>s99_e59_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1335</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>157</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>s100_e60_24019-32_4_0.jpeg</t>
+          <t>s100_e60_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5127,12 +5127,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>986</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>110</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>s101_e61_24019-32_5_1.jpeg</t>
+          <t>s101_e61_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>510</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>448</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>162</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>s102_e62_24019-32_5_2.jpeg</t>
+          <t>s102_e62_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>958</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5258,7 +5258,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>s103_e29_24019-32_1_1.jpeg</t>
+          <t>s103_e63_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5268,32 +5268,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>905</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>176</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>s104_e30_24019-32_1_2.jpeg</t>
+          <t>s104_e64_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5315,32 +5315,32 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>s105_e31_24019-32_1_3.jpeg</t>
+          <t>s105_e65_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5362,32 +5362,32 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>618</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>s106_e32_24019-32_1_4.jpeg</t>
+          <t>s106_e66_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5409,32 +5409,32 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>289</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>328</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>125</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>s107_e33_24019-32_1_5.jpeg</t>
+          <t>s107_e67_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5456,32 +5456,32 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>934</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>143</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>174</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>s108_e34_24019-32_1_6.jpeg</t>
+          <t>s108_e68_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5503,32 +5503,32 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>938</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>171</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>s109_e35_24019-32_1_7.jpeg</t>
+          <t>s109_e69_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5550,32 +5550,32 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5587,7 +5587,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>s110_e36_24019-32_1_8.jpeg</t>
+          <t>s110_e70_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5597,27 +5597,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>191</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>113</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>s111_e37_24019-32_2_7.jpeg</t>
+          <t>s111_e71_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5644,32 +5644,32 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>643</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>s112_e38_24019-32_2_6.jpeg</t>
+          <t>s112_e72_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5691,32 +5691,32 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1910</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>405</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>s113_e39_24019-32_2_5.jpeg</t>
+          <t>s113_e73_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5738,32 +5738,32 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1081</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>1280</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>120</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>152</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>s114_e40_24019-32_2_4.jpeg</t>
+          <t>s114_e74_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5785,32 +5785,32 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>856</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>150</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>121</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>s115_e41_24019-32_2_3.jpeg</t>
+          <t>s115_e75_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5832,32 +5832,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>652</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>s116_e42_24019-32_2_2.jpeg</t>
+          <t>s116_e76_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5879,27 +5879,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>s117_e43_24019-32_2_1.jpeg</t>
+          <t>s117_e77_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5926,32 +5926,32 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>783</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>149</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>s118_e44_24019-32_2_0.jpeg</t>
+          <t>s118_e78_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5973,32 +5973,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>81</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>824</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>105</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>s119_e45_24019-32_3_1.jpeg</t>
+          <t>s119_e79_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6020,32 +6020,831 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>s120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>s120_e80_24019-32_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>s121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>s121_e81_24019-32_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>s122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>s122_e82_24019-32_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>s123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>s123_e83_24019-32_1_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1172</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>s124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>s124_e84_24019-32_1_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>s125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>s125_e85_24019-32_1_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>s126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>s126_e86_24019-32_1_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>s127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>s127_e87_24019-32_1_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1298</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>s128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>s128_e88_24019-32_2_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>s129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>s129_e89_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>s130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>s130_e90_24019-32_2_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>s131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>s131_e91_24019-32_2_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>1538</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>s132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>s132_e92_24019-32_2_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>s133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>s133_e93_24019-32_2_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>s134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>s134_e94_24019-32_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1156</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>61</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>572</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>s135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>s135_e95_24019-32_2_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>s136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>s136_e96_24019-32_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="42" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:I137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="55" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -6848,6 +6848,1510 @@
         </is>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>s137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>s137_e101_24019-32_1_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>s138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>s138_e111_24019-32_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>s139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>s139_e104_24019-32_1_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>920</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>s140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>s140_e113_24019-32_3_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1372</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>s141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>s141_e107_24019-32_2_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>s142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>s142_e114_24019-32_3_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>s143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>s143_e106_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2302</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1604</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>s144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>s144_e112_24019-32_2_0.jpeg</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>s145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>s145_e99_24019-32_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1506</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>s146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>s146_e103_24019-32_1_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>s147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>s147_e100_24019-32_1_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>s148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>s148_e122_24019-32_4_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1274</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>s149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>s149_e117_24019-32_3_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>s150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>s150_e119_24019-32_3_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>s151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>s151_e105_24019-32_2_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>s152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>s152_e121_24019-32_4_7.jpeg</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2606</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>1792</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>s153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>s153_e129_24019-32_1_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>s154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>s154_e130_24019-32_1_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>s155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>s155_e145_24019-32_3_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>757</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>s156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>s156_e127_24019-32_1_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1439</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>s157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>s157_e144_24019-32_3_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>796</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>s158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>s158_e125_24019-32_1_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>s159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>s159_e148_24019-32_3_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>s160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>s160_e143_24019-32_3_3.jpeg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>s161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>s161_e135_24019-32_2_5.jpeg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>s162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>s162_e134_24019-32_2_6.jpeg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>s163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>s163_e132_24019-32_1_8.jpeg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>s164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>s164_e136_24019-32_2_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>s165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>s165_e139_24019-32_2_1.jpeg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>s166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>s166_e152_24019-32_4_4.jpeg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>s167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>s167_e126_24019-32_1_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>s168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>s168_e142_24019-32_3_2.jpeg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>meltpatch</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -392,7 +392,7 @@
   </sheetPr>
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="55" workbookViewId="0">
       <selection activeCell="A138" sqref="A138:I169"/>
     </sheetView>
   </sheetViews>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>s137_e101_24019-32_1_5.jpeg</t>
+          <t>s137_e118_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>661</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>s138_e111_24019-32_2_1.jpeg</t>
+          <t>s138_e115_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>s139_e104_24019-32_1_8.jpeg</t>
+          <t>s139_e107_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>467</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>s140_e113_24019-32_3_1.jpeg</t>
+          <t>s140_e108_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7007,12 +7007,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1556</t>
+          <t>1519</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>s141_e107_24019-32_2_5.jpeg</t>
+          <t>s141_e98_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7054,12 +7054,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>239</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>s142_e114_24019-32_3_2.jpeg</t>
+          <t>s142_e120_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>1441</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>s143_e106_24019-32_2_6.jpeg</t>
+          <t>s143_e112_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2302</t>
+          <t>941</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>147</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>s144_e112_24019-32_2_0.jpeg</t>
+          <t>s144_e113_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>503</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>454</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>159</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>s145_e99_24019-32_1_3.jpeg</t>
+          <t>s145_e103_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>2185</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>175</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>s146_e103_24019-32_1_7.jpeg</t>
+          <t>s146_e109_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>680</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>s147_e100_24019-32_1_4.jpeg</t>
+          <t>s147_e105_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>174</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>s148_e122_24019-32_4_6.jpeg</t>
+          <t>s148_e102_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>106</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>s149_e117_24019-32_3_5.jpeg</t>
+          <t>s149_e124_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7430,12 +7430,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>496</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>s150_e119_24019-32_3_7.jpeg</t>
+          <t>s150_e117_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>567</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>740</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>s151_e105_24019-32_2_7.jpeg</t>
+          <t>s151_e110_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7524,12 +7524,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>142</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>s152_e121_24019-32_4_7.jpeg</t>
+          <t>s152_e104_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>282</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>s153_e129_24019-32_1_5.jpeg</t>
+          <t>s153_e151_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7618,27 +7618,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
           <t>51</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>928</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>s154_e130_24019-32_1_6.jpeg</t>
+          <t>s154_e139_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>778</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>214</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>s155_e145_24019-32_3_5.jpeg</t>
+          <t>s155_e127_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7712,12 +7712,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>s156_e127_24019-32_1_3.jpeg</t>
+          <t>s156_e136_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>148</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>472</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>s157_e144_24019-32_3_4.jpeg</t>
+          <t>s157_e140_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>s158_e125_24019-32_1_1.jpeg</t>
+          <t>s158_e130_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7853,12 +7853,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>145</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>461</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>s159_e148_24019-32_3_8.jpeg</t>
+          <t>s159_e125_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7900,12 +7900,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>906</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>s160_e143_24019-32_3_3.jpeg</t>
+          <t>s160_e145_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7947,12 +7947,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>s161_e135_24019-32_2_5.jpeg</t>
+          <t>s161_e143_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>463</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>141</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>s162_e134_24019-32_2_6.jpeg</t>
+          <t>s162_e129_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>642</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>s163_e132_24019-32_1_8.jpeg</t>
+          <t>s163_e152_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>113</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>s164_e136_24019-32_2_4.jpeg</t>
+          <t>s164_e133_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>796</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>s165_e139_24019-32_2_1.jpeg</t>
+          <t>s165_e126_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8182,12 +8182,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>944</t>
+          <t>898</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>s166_e152_24019-32_4_4.jpeg</t>
+          <t>s166_e131_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8229,12 +8229,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>339</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>s167_e126_24019-32_1_2.jpeg</t>
+          <t>s167_e142_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>821</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>671</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>s168_e142_24019-32_3_2.jpeg</t>
+          <t>s168_e146_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8323,12 +8323,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>484</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>180</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>s137_e118_24019-32_3_6.jpeg</t>
+          <t>s137_e104_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>780</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>978</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>s138_e115_24019-32_3_3.jpeg</t>
+          <t>s138_e102_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>s139_e107_24019-32_2_5.jpeg</t>
+          <t>s139_e116_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>869</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>110</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>s140_e108_24019-32_2_4.jpeg</t>
+          <t>s140_e120_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7007,12 +7007,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>s141_e98_24019-32_1_2.jpeg</t>
+          <t>s141_e109_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7054,12 +7054,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>145</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>s142_e120_24019-32_3_8.jpeg</t>
+          <t>s142_e115_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1684</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>115</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>s143_e112_24019-32_2_0.jpeg</t>
+          <t>s143_e123_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>153</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>s144_e113_24019-32_3_1.jpeg</t>
+          <t>s144_e110_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>660</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>153</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>376</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>s146_e109_24019-32_2_3.jpeg</t>
+          <t>s146_e117_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>176</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>s147_e105_24019-32_2_7.jpeg</t>
+          <t>s147_e106_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>98</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>105</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>s148_e102_24019-32_1_6.jpeg</t>
+          <t>s148_e119_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>2550</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>119</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>s149_e124_24019-32_4_4.jpeg</t>
+          <t>s149_e100_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7430,12 +7430,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>2253</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>430</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>s150_e117_24019-32_3_5.jpeg</t>
+          <t>s150_e121_24019-32_4_7.jpeg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1273</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>740</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>s151_e110_24019-32_2_2.jpeg</t>
+          <t>s151_e114_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7524,12 +7524,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>147</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>s152_e104_24019-32_1_8.jpeg</t>
+          <t>s152_e105_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>s153_e151_24019-32_4_5.jpeg</t>
+          <t>s153_e141_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7618,27 +7618,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1669</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>714</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>s154_e139_24019-32_2_1.jpeg</t>
+          <t>s154_e127_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7665,27 +7665,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>168</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>164</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>s155_e127_24019-32_1_3.jpeg</t>
+          <t>s155_e139_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7712,27 +7712,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1160</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>s156_e136_24019-32_2_4.jpeg</t>
+          <t>s156_e143_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7759,27 +7759,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>1544</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>224</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>s157_e140_24019-32_2_0.jpeg</t>
+          <t>s157_e126_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7806,27 +7806,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>102</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>110</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>s158_e130_24019-32_1_6.jpeg</t>
+          <t>s158_e150_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7853,27 +7853,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>450</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>167</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7900,27 +7900,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>716</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>143</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>s160_e145_24019-32_3_5.jpeg</t>
+          <t>s160_e132_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7947,27 +7947,27 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>163</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>s161_e143_24019-32_3_3.jpeg</t>
+          <t>s161_e147_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7994,27 +7994,27 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>654</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>s162_e129_24019-32_1_5.jpeg</t>
+          <t>s162_e136_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8041,27 +8041,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>734</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>204</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>s163_e152_24019-32_4_4.jpeg</t>
+          <t>s163_e137_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8088,27 +8088,27 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>873</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>126</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>s164_e133_24019-32_2_7.jpeg</t>
+          <t>s164_e140_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8135,27 +8135,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>796</t>
+          <t>116</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>516</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>89</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>s165_e126_24019-32_1_2.jpeg</t>
+          <t>s165_e144_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8182,27 +8182,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>898</t>
+          <t>1487</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>88</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>s166_e131_24019-32_1_7.jpeg</t>
+          <t>s166_e138_24019-32_2_2.jpeg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8229,27 +8229,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>868</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>381</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>122</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>s167_e142_24019-32_3_2.jpeg</t>
+          <t>s167_e146_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8276,27 +8276,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>153</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>s168_e146_24019-32_3_6.jpeg</t>
+          <t>s168_e148_24019-32_3_8.jpeg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8323,27 +8323,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>606</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>s137_e104_24019-32_1_8.jpeg</t>
+          <t>s137_e101_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>780</t>
+          <t>739</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>978</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>s138_e102_24019-32_1_6.jpeg</t>
+          <t>s138_e103_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>909</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>666</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>143</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>s139_e116_24019-32_3_4.jpeg</t>
+          <t>s139_e98_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>s140_e120_24019-32_3_8.jpeg</t>
+          <t>s140_e113_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7007,12 +7007,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>542</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>652</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>s141_e109_24019-32_2_3.jpeg</t>
+          <t>s141_e97_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7054,12 +7054,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>568</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>s142_e115_24019-32_3_3.jpeg</t>
+          <t>s142_e100_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>2082</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1684</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>s143_e123_24019-32_4_5.jpeg</t>
+          <t>s143_e108_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>238</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>s144_e110_24019-32_2_2.jpeg</t>
+          <t>s144_e109_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>s145_e103_24019-32_1_7.jpeg</t>
+          <t>s145_e119_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>1654</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>358</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>s146_e117_24019-32_3_5.jpeg</t>
+          <t>s146_e118_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>2493</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1747</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>s147_e106_24019-32_2_6.jpeg</t>
+          <t>s147_e99_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>249</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>s148_e119_24019-32_3_7.jpeg</t>
+          <t>s148_e112_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>1075</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>679</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>s149_e100_24019-32_1_4.jpeg</t>
+          <t>s149_e104_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7430,12 +7430,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2253</t>
+          <t>379</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>93</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>s150_e121_24019-32_4_7.jpeg</t>
+          <t>s150_e122_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>1273</t>
+          <t>2416</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>144</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>s151_e114_24019-32_3_2.jpeg</t>
+          <t>s151_e105_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7524,12 +7524,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1223</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>s152_e105_24019-32_2_7.jpeg</t>
+          <t>s152_e106_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>785</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>s153_e141_24019-32_3_1.jpeg</t>
+          <t>s153_e140_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7618,12 +7618,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1669</t>
+          <t>221</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>910</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>108</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>s154_e127_24019-32_1_3.jpeg</t>
+          <t>s154_e149_24019-32_4_7.jpeg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>s155_e139_24019-32_2_1.jpeg</t>
+          <t>s155_e147_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7712,12 +7712,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>659</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>539</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>163</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>s156_e143_24019-32_3_3.jpeg</t>
+          <t>s156_e151_24019-32_4_5.jpeg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>525</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>945</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>s157_e126_24019-32_1_2.jpeg</t>
+          <t>s157_e150_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>297</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1371</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>s158_e150_24019-32_4_6.jpeg</t>
+          <t>s158_e133_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7853,12 +7853,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>829</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>152</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>s159_e125_24019-32_1_1.jpeg</t>
+          <t>s159_e132_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7900,12 +7900,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>714</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>s160_e132_24019-32_1_8.jpeg</t>
+          <t>s160_e126_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7947,12 +7947,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>278</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>128</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>s161_e147_24019-32_3_7.jpeg</t>
+          <t>s161_e129_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>1457</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>s162_e136_24019-32_2_4.jpeg</t>
+          <t>s162_e127_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>1210</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>s163_e137_24019-32_2_3.jpeg</t>
+          <t>s163_e136_24019-32_2_4.jpeg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>821</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>180</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>s164_e140_24019-32_2_0.jpeg</t>
+          <t>s164_e128_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>730</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>s165_e144_24019-32_3_4.jpeg</t>
+          <t>s165_e125_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8182,12 +8182,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1487</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>1474</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>132</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>s166_e138_24019-32_2_2.jpeg</t>
+          <t>s166_e142_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8229,12 +8229,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>564</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>667</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>165</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>s167_e146_24019-32_3_6.jpeg</t>
+          <t>s167_e144_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>350</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>s168_e148_24019-32_3_8.jpeg</t>
+          <t>s168_e143_24019-32_3_3.jpeg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8323,12 +8323,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>251</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>103</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">

--- a/manifests/Simulation_Manifest.xlsx
+++ b/manifests/Simulation_Manifest.xlsx
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>s137_e101_24019-32_1_5.jpeg</t>
+          <t>s137_e105_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6866,12 +6866,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>2532</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -6886,7 +6886,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>139</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>s138_e103_24019-32_1_7.jpeg</t>
+          <t>s138_e111_24019-32_2_1.jpeg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6913,12 +6913,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>132</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>s139_e98_24019-32_1_2.jpeg</t>
+          <t>s139_e104_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6960,12 +6960,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>701</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>s140_e113_24019-32_3_1.jpeg</t>
+          <t>s140_e109_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7007,12 +7007,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>2525</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7027,7 +7027,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>s141_e97_24019-32_1_1.jpeg</t>
+          <t>s141_e119_24019-32_3_7.jpeg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7054,12 +7054,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>s142_e100_24019-32_1_4.jpeg</t>
+          <t>s142_e118_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2082</t>
+          <t>994</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>826</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>105</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>s143_e108_24019-32_2_4.jpeg</t>
+          <t>s143_e124_24019-32_4_4.jpeg</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7148,12 +7148,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>481</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>s144_e109_24019-32_2_3.jpeg</t>
+          <t>s144_e122_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>119</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>s145_e119_24019-32_3_7.jpeg</t>
+          <t>s145_e113_24019-32_3_1.jpeg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>513</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>197</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>143</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>s146_e118_24019-32_3_6.jpeg</t>
+          <t>s146_e98_24019-32_1_2.jpeg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>536</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>114</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>241</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>154</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>s148_e112_24019-32_2_0.jpeg</t>
+          <t>s148_e101_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>2207</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>1159</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>s149_e104_24019-32_1_8.jpeg</t>
+          <t>s149_e112_24019-32_2_0.jpeg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7430,12 +7430,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>s150_e122_24019-32_4_6.jpeg</t>
+          <t>s150_e117_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7477,12 +7477,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2416</t>
+          <t>2358</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>s151_e105_24019-32_2_7.jpeg</t>
+          <t>s151_e116_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7524,12 +7524,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>s152_e106_24019-32_2_6.jpeg</t>
+          <t>s152_e107_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7571,12 +7571,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>2506</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>225</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>s153_e140_24019-32_2_0.jpeg</t>
+          <t>s153_e142_24019-32_3_2.jpeg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7618,12 +7618,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>464</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>661</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>s154_e149_24019-32_4_7.jpeg</t>
+          <t>s154_e146_24019-32_3_6.jpeg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7665,12 +7665,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>312</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>246</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>169</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>s155_e147_24019-32_3_7.jpeg</t>
+          <t>s155_e150_24019-32_4_6.jpeg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7712,12 +7712,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>413</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>114</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>s156_e151_24019-32_4_5.jpeg</t>
+          <t>s156_e144_24019-32_3_4.jpeg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7759,12 +7759,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>152</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>s157_e150_24019-32_4_6.jpeg</t>
+          <t>s157_e125_24019-32_1_1.jpeg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7806,12 +7806,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>590</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>1371</t>
+          <t>727</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7843,7 +7843,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>s158_e133_24019-32_2_7.jpeg</t>
+          <t>s158_e130_24019-32_1_6.jpeg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7853,12 +7853,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>302</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>s159_e132_24019-32_1_8.jpeg</t>
+          <t>s159_e127_24019-32_1_3.jpeg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7900,12 +7900,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>143</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>s160_e126_24019-32_1_2.jpeg</t>
+          <t>s160_e132_24019-32_1_8.jpeg</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7947,12 +7947,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>913</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>s161_e129_24019-32_1_5.jpeg</t>
+          <t>s161_e135_24019-32_2_5.jpeg</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1045</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>744</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8014,7 +8014,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>s162_e127_24019-32_1_3.jpeg</t>
+          <t>s162_e145_24019-32_3_5.jpeg</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8041,12 +8041,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>402</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>164</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>s163_e136_24019-32_2_4.jpeg</t>
+          <t>s163_e133_24019-32_2_7.jpeg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8088,12 +8088,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>445</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>821</t>
+          <t>346</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>s164_e128_24019-32_1_4.jpeg</t>
+          <t>s164_e137_24019-32_2_3.jpeg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>101</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -8172,7 +8172,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>s165_e125_24019-32_1_1.jpeg</t>
+          <t>s165_e129_24019-32_1_5.jpeg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8182,12 +8182,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>378</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>1474</t>
+          <t>988</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>172</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>s166_e142_24019-32_3_2.jpeg</t>
+          <t>s166_e134_24019-32_2_6.jpeg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8229,12 +8229,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>484</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8249,7 +8249,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>s167_e144_24019-32_3_4.jpeg</t>
+          <t>s167_e128_24019-32_1_4.jpeg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8276,12 +8276,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1365</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>993</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>s168_e143_24019-32_3_3.jpeg</t>
+          <t>s168_e131_24019-32_1_7.jpeg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8323,12 +8323,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>386</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>628</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
